--- a/app/src/main/assets/province.xlsx
+++ b/app/src/main/assets/province.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UyenPT73\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Android\CensusApplication\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Thành phố Hà Nội</t>
   </si>
@@ -210,6 +210,192 @@
   </si>
   <si>
     <t>Tỉnh Cà Mau</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -265,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -329,6 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,422 +801,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="64"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
+      <c r="A1" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
+      <c r="A2" s="63" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>4</v>
+      <c r="A3" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>6</v>
+      <c r="A4" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>8</v>
+      <c r="A5" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>10</v>
+      <c r="A6" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>11</v>
+      <c r="A7" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>12</v>
+      <c r="A8" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>14</v>
+      <c r="A9" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>15</v>
+      <c r="A10" s="63" t="s">
+        <v>71</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>17</v>
+      <c r="A11" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>19</v>
+      <c r="A12" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>20</v>
+      <c r="A13" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>22</v>
+      <c r="A14" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>24</v>
+      <c r="A15" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>25</v>
+      <c r="A16" s="65" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>26</v>
+      <c r="A17" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>27</v>
+      <c r="A18" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>30</v>
+      <c r="A19" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>31</v>
+      <c r="A20" s="65" t="s">
+        <v>99</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>33</v>
+      <c r="A21" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>34</v>
+      <c r="A22" s="65" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>35</v>
+      <c r="A23" s="65" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>36</v>
+      <c r="A24" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>37</v>
+      <c r="A25" s="65" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>38</v>
+      <c r="A26" s="65" t="s">
+        <v>105</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>40</v>
+      <c r="A27" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>42</v>
+      <c r="A28" s="65" t="s">
+        <v>107</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>44</v>
+      <c r="A29" s="65" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>46</v>
+      <c r="A30" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <v>48</v>
+      <c r="A31" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
-        <v>49</v>
+      <c r="A32" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>51</v>
+      <c r="A33" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>52</v>
+      <c r="A34" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>54</v>
+      <c r="A35" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
-        <v>56</v>
+      <c r="A36" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
-        <v>58</v>
+      <c r="A37" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="B37" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
-        <v>60</v>
+      <c r="A38" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>62</v>
+      <c r="A39" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>64</v>
+      <c r="A40" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41">
-        <v>66</v>
+      <c r="A41" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
-        <v>67</v>
+      <c r="A42" s="65" t="s">
+        <v>121</v>
       </c>
       <c r="B42" s="42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>68</v>
+      <c r="A43" s="65" t="s">
+        <v>122</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
-        <v>70</v>
+      <c r="A44" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="B44" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="45">
-        <v>72</v>
+      <c r="A45" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="46">
-        <v>74</v>
+      <c r="A46" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="47">
-        <v>75</v>
+      <c r="A47" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="B47" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
-        <v>77</v>
+      <c r="A48" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
-        <v>79</v>
+      <c r="A49" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="B49" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
-        <v>80</v>
+      <c r="A50" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="51">
-        <v>82</v>
+      <c r="A51" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="B51" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="52">
+      <c r="A52" s="63" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="52" t="s">
@@ -1035,80 +1227,80 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="53">
-        <v>84</v>
+      <c r="A53" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="B53" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
-        <v>86</v>
+      <c r="A54" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="B54" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
-        <v>87</v>
+      <c r="A55" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="B55" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="56">
-        <v>89</v>
+      <c r="A56" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="57">
-        <v>91</v>
+      <c r="A57" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="58">
-        <v>92</v>
+      <c r="A58" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="B58" s="58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="59">
-        <v>93</v>
+      <c r="A59" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="B59" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="60">
-        <v>94</v>
+      <c r="A60" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="B60" s="60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="61">
-        <v>95</v>
+      <c r="A61" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="B61" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="62">
-        <v>96</v>
+      <c r="A62" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>61</v>
@@ -1116,5 +1308,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>